--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/L1cam-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/L1cam-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H2">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I2">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J2">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.006601</v>
+        <v>0.01638633333333333</v>
       </c>
       <c r="N2">
-        <v>0.019803</v>
+        <v>0.049159</v>
       </c>
       <c r="O2">
-        <v>0.0009255397585646605</v>
+        <v>0.02187172081577483</v>
       </c>
       <c r="P2">
-        <v>0.001383055057785483</v>
+        <v>0.03245268321021395</v>
       </c>
       <c r="Q2">
-        <v>0.05589344822133334</v>
+        <v>0.110005601409</v>
       </c>
       <c r="R2">
-        <v>0.5030410339920001</v>
+        <v>0.9900504126809999</v>
       </c>
       <c r="S2">
-        <v>0.0002529009008315816</v>
+        <v>0.006784257990933686</v>
       </c>
       <c r="T2">
-        <v>0.0004326200369992795</v>
+        <v>0.01048754655922577</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H3">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I3">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J3">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.01638633333333333</v>
+        <v>0.7328155000000001</v>
       </c>
       <c r="N3">
-        <v>0.049159</v>
+        <v>1.465631</v>
       </c>
       <c r="O3">
-        <v>0.00229756142964602</v>
+        <v>0.9781282791842253</v>
       </c>
       <c r="P3">
-        <v>0.003433298166221107</v>
+        <v>0.9675473167897861</v>
       </c>
       <c r="Q3">
-        <v>0.1387499884417778</v>
+        <v>4.9195758538215</v>
       </c>
       <c r="R3">
-        <v>1.248749895976</v>
+        <v>29.517455122929</v>
       </c>
       <c r="S3">
-        <v>0.0006278016151077977</v>
+        <v>0.3033997484746475</v>
       </c>
       <c r="T3">
-        <v>0.001073936696401938</v>
+        <v>0.3126766889307069</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.467421333333334</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H4">
-        <v>25.402264</v>
+        <v>1.003042</v>
       </c>
       <c r="I4">
-        <v>0.2732469334691615</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J4">
-        <v>0.312800300005396</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.03120566666666666</v>
+        <v>0.01638633333333333</v>
       </c>
       <c r="N4">
-        <v>0.09361699999999999</v>
+        <v>0.049159</v>
       </c>
       <c r="O4">
-        <v>0.004375410573021653</v>
+        <v>0.02187172081577483</v>
       </c>
       <c r="P4">
-        <v>0.006538275278730676</v>
+        <v>0.03245268321021395</v>
       </c>
       <c r="Q4">
-        <v>0.2642315276542222</v>
+        <v>0.005478726853111111</v>
       </c>
       <c r="R4">
-        <v>2.378083748888</v>
+        <v>0.049308541678</v>
       </c>
       <c r="S4">
-        <v>0.001195567521746714</v>
+        <v>0.0003378836709884218</v>
       </c>
       <c r="T4">
-        <v>0.00204517446870482</v>
+        <v>0.0005223225201383459</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.467421333333334</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H5">
-        <v>25.402264</v>
+        <v>1.003042</v>
       </c>
       <c r="I5">
-        <v>0.2732469334691615</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J5">
-        <v>0.312800300005396</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.0778615</v>
+        <v>0.7328155000000001</v>
       </c>
       <c r="N5">
-        <v>14.155723</v>
+        <v>1.465631</v>
       </c>
       <c r="O5">
-        <v>0.9924014882387677</v>
+        <v>0.9781282791842253</v>
       </c>
       <c r="P5">
-        <v>0.9886453714972628</v>
+        <v>0.9675473167897861</v>
       </c>
       <c r="Q5">
-        <v>59.93123545947867</v>
+        <v>0.2450149082503333</v>
       </c>
       <c r="R5">
-        <v>359.587412756872</v>
+        <v>1.470089449502</v>
       </c>
       <c r="S5">
-        <v>0.2711706634314754</v>
+        <v>0.01511054280786118</v>
       </c>
       <c r="T5">
-        <v>0.30924856880329</v>
+        <v>0.01557257221491251</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,51 +788,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3343473333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H6">
-        <v>1.003042</v>
+        <v>19.985354</v>
       </c>
       <c r="I6">
-        <v>0.01078951666043525</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J6">
-        <v>0.01235133366529898</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.006601</v>
+        <v>0.01638633333333333</v>
       </c>
       <c r="N6">
-        <v>0.019803</v>
+        <v>0.049159</v>
       </c>
       <c r="O6">
-        <v>0.0009255397585646605</v>
+        <v>0.02187172081577483</v>
       </c>
       <c r="P6">
-        <v>0.001383055057785483</v>
+        <v>0.03245268321021395</v>
       </c>
       <c r="Q6">
-        <v>0.002207026747333333</v>
+        <v>0.1091622241428889</v>
       </c>
       <c r="R6">
-        <v>0.019863240726</v>
+        <v>0.9824600172860001</v>
       </c>
       <c r="S6">
-        <v>9.986126644928626E-06</v>
+        <v>0.006732245285365058</v>
       </c>
       <c r="T6">
-        <v>1.708257449618787E-05</v>
+        <v>0.01040714194135138</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,51 +850,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3343473333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H7">
-        <v>1.003042</v>
+        <v>19.985354</v>
       </c>
       <c r="I7">
-        <v>0.01078951666043525</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J7">
-        <v>0.01235133366529898</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.01638633333333333</v>
+        <v>0.7328155000000001</v>
       </c>
       <c r="N7">
-        <v>0.049159</v>
+        <v>1.465631</v>
       </c>
       <c r="O7">
-        <v>0.00229756142964602</v>
+        <v>0.9781282791842253</v>
       </c>
       <c r="P7">
-        <v>0.003433298166221107</v>
+        <v>0.9675473167897861</v>
       </c>
       <c r="Q7">
-        <v>0.005478726853111111</v>
+        <v>4.881859061395667</v>
       </c>
       <c r="R7">
-        <v>0.049308541678</v>
+        <v>29.29115436837401</v>
       </c>
       <c r="S7">
-        <v>2.478957732353918E-05</v>
+        <v>0.3010736810096283</v>
       </c>
       <c r="T7">
-        <v>4.240581122345602E-05</v>
+        <v>0.3102794981721509</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3343473333333333</v>
+        <v>2.607918</v>
       </c>
       <c r="H8">
-        <v>1.003042</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I8">
-        <v>0.01078951666043525</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J8">
-        <v>0.01235133366529898</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.03120566666666666</v>
+        <v>0.01638633333333333</v>
       </c>
       <c r="N8">
-        <v>0.09361699999999999</v>
+        <v>0.049159</v>
       </c>
       <c r="O8">
-        <v>0.004375410573021653</v>
+        <v>0.02187172081577483</v>
       </c>
       <c r="P8">
-        <v>0.006538275278730676</v>
+        <v>0.03245268321021395</v>
       </c>
       <c r="Q8">
-        <v>0.01043353143488889</v>
+        <v>0.04273421365399999</v>
       </c>
       <c r="R8">
-        <v>0.09390178291399999</v>
+        <v>0.256405281924</v>
       </c>
       <c r="S8">
-        <v>4.720856527386169E-05</v>
+        <v>0.002635501526785866</v>
       </c>
       <c r="T8">
-        <v>8.075641956317828E-05</v>
+        <v>0.002716086269715833</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,22 +968,22 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3343473333333333</v>
+        <v>2.607918</v>
       </c>
       <c r="H9">
-        <v>1.003042</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I9">
-        <v>0.01078951666043525</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J9">
-        <v>0.01235133366529898</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.0778615</v>
+        <v>0.7328155000000001</v>
       </c>
       <c r="N9">
-        <v>14.155723</v>
+        <v>1.465631</v>
       </c>
       <c r="O9">
-        <v>0.9924014882387677</v>
+        <v>0.9781282791842253</v>
       </c>
       <c r="P9">
-        <v>0.9886453714972628</v>
+        <v>0.9675473167897861</v>
       </c>
       <c r="Q9">
-        <v>2.366464118227666</v>
+        <v>1.911122733129</v>
       </c>
       <c r="R9">
-        <v>14.198784709366</v>
+        <v>7.644490932516</v>
       </c>
       <c r="S9">
-        <v>0.01070753239119293</v>
+        <v>0.117862631609818</v>
       </c>
       <c r="T9">
-        <v>0.01221108886001616</v>
+        <v>0.08097764876360151</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.140032333333333</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H10">
-        <v>12.420097</v>
+        <v>15.976516</v>
       </c>
       <c r="I10">
-        <v>0.1336004309946362</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J10">
-        <v>0.1529395201819853</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.006601</v>
+        <v>0.01638633333333333</v>
       </c>
       <c r="N10">
-        <v>0.019803</v>
+        <v>0.049159</v>
       </c>
       <c r="O10">
-        <v>0.0009255397585646605</v>
+        <v>0.02187172081577483</v>
       </c>
       <c r="P10">
-        <v>0.001383055057785483</v>
+        <v>0.03245268321021395</v>
       </c>
       <c r="Q10">
-        <v>0.02732835343233333</v>
+        <v>0.08726550556044443</v>
       </c>
       <c r="R10">
-        <v>0.245955180891</v>
+        <v>0.785389550044</v>
       </c>
       <c r="S10">
-        <v>0.0001236525106469102</v>
+        <v>0.005381832341701799</v>
       </c>
       <c r="T10">
-        <v>0.0002115237769229798</v>
+        <v>0.008319585919782626</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,666 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.140032333333333</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H11">
-        <v>12.420097</v>
+        <v>15.976516</v>
       </c>
       <c r="I11">
-        <v>0.1336004309946362</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J11">
-        <v>0.1529395201819853</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.01638633333333333</v>
+        <v>0.7328155000000001</v>
       </c>
       <c r="N11">
-        <v>0.049159</v>
+        <v>1.465631</v>
       </c>
       <c r="O11">
-        <v>0.00229756142964602</v>
+        <v>0.9781282791842253</v>
       </c>
       <c r="P11">
-        <v>0.003433298166221107</v>
+        <v>0.9675473167897861</v>
       </c>
       <c r="Q11">
-        <v>0.06783994982477777</v>
+        <v>3.902612853599333</v>
       </c>
       <c r="R11">
-        <v>0.610559548423</v>
+        <v>23.415677121596</v>
       </c>
       <c r="S11">
-        <v>0.0003069551972373609</v>
+        <v>0.2406816752822703</v>
       </c>
       <c r="T11">
-        <v>0.000525086974183546</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>4.140032333333333</v>
-      </c>
-      <c r="H12">
-        <v>12.420097</v>
-      </c>
-      <c r="I12">
-        <v>0.1336004309946362</v>
-      </c>
-      <c r="J12">
-        <v>0.1529395201819853</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.03120566666666666</v>
-      </c>
-      <c r="N12">
-        <v>0.09361699999999999</v>
-      </c>
-      <c r="O12">
-        <v>0.004375410573021653</v>
-      </c>
-      <c r="P12">
-        <v>0.006538275278730676</v>
-      </c>
-      <c r="Q12">
-        <v>0.1291924689832222</v>
-      </c>
-      <c r="R12">
-        <v>1.162732220849</v>
-      </c>
-      <c r="S12">
-        <v>0.0005845567383341812</v>
-      </c>
-      <c r="T12">
-        <v>0.0009999606839468057</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>4.140032333333333</v>
-      </c>
-      <c r="H13">
-        <v>12.420097</v>
-      </c>
-      <c r="I13">
-        <v>0.1336004309946362</v>
-      </c>
-      <c r="J13">
-        <v>0.1529395201819853</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>7.0778615</v>
-      </c>
-      <c r="N13">
-        <v>14.155723</v>
-      </c>
-      <c r="O13">
-        <v>0.9924014882387677</v>
-      </c>
-      <c r="P13">
-        <v>0.9886453714972628</v>
-      </c>
-      <c r="Q13">
-        <v>29.30257546085517</v>
-      </c>
-      <c r="R13">
-        <v>175.815452765131</v>
-      </c>
-      <c r="S13">
-        <v>0.1325852665484178</v>
-      </c>
-      <c r="T13">
-        <v>0.151202948746932</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>11.755292</v>
-      </c>
-      <c r="H14">
-        <v>23.510584</v>
-      </c>
-      <c r="I14">
-        <v>0.3793477806979605</v>
-      </c>
-      <c r="J14">
-        <v>0.2895063892140504</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.006601</v>
-      </c>
-      <c r="N14">
-        <v>0.019803</v>
-      </c>
-      <c r="O14">
-        <v>0.0009255397585646605</v>
-      </c>
-      <c r="P14">
-        <v>0.001383055057785483</v>
-      </c>
-      <c r="Q14">
-        <v>0.077596682492</v>
-      </c>
-      <c r="R14">
-        <v>0.465580094952</v>
-      </c>
-      <c r="S14">
-        <v>0.0003511014533592302</v>
-      </c>
-      <c r="T14">
-        <v>0.0004004032758637052</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>11.755292</v>
-      </c>
-      <c r="H15">
-        <v>23.510584</v>
-      </c>
-      <c r="I15">
-        <v>0.3793477806979605</v>
-      </c>
-      <c r="J15">
-        <v>0.2895063892140504</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.01638633333333333</v>
-      </c>
-      <c r="N15">
-        <v>0.049159</v>
-      </c>
-      <c r="O15">
-        <v>0.00229756142964602</v>
-      </c>
-      <c r="P15">
-        <v>0.003433298166221107</v>
-      </c>
-      <c r="Q15">
-        <v>0.1926261331426666</v>
-      </c>
-      <c r="R15">
-        <v>1.155756798856</v>
-      </c>
-      <c r="S15">
-        <v>0.0008715748293534512</v>
-      </c>
-      <c r="T15">
-        <v>0.0009939617551978934</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>11.755292</v>
-      </c>
-      <c r="H16">
-        <v>23.510584</v>
-      </c>
-      <c r="I16">
-        <v>0.3793477806979605</v>
-      </c>
-      <c r="J16">
-        <v>0.2895063892140504</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.03120566666666666</v>
-      </c>
-      <c r="N16">
-        <v>0.09361699999999999</v>
-      </c>
-      <c r="O16">
-        <v>0.004375410573021653</v>
-      </c>
-      <c r="P16">
-        <v>0.006538275278730676</v>
-      </c>
-      <c r="Q16">
-        <v>0.3668317237213333</v>
-      </c>
-      <c r="R16">
-        <v>2.200990342328</v>
-      </c>
-      <c r="S16">
-        <v>0.001659802290518156</v>
-      </c>
-      <c r="T16">
-        <v>0.001892872467632807</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>11.755292</v>
-      </c>
-      <c r="H17">
-        <v>23.510584</v>
-      </c>
-      <c r="I17">
-        <v>0.3793477806979605</v>
-      </c>
-      <c r="J17">
-        <v>0.2895063892140504</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>7.0778615</v>
-      </c>
-      <c r="N17">
-        <v>14.155723</v>
-      </c>
-      <c r="O17">
-        <v>0.9924014882387677</v>
-      </c>
-      <c r="P17">
-        <v>0.9886453714972628</v>
-      </c>
-      <c r="Q17">
-        <v>83.20232866805799</v>
-      </c>
-      <c r="R17">
-        <v>332.8093146722319</v>
-      </c>
-      <c r="S17">
-        <v>0.3764653021247297</v>
-      </c>
-      <c r="T17">
-        <v>0.2862191517153561</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>6.291073</v>
-      </c>
-      <c r="H18">
-        <v>18.873219</v>
-      </c>
-      <c r="I18">
-        <v>0.2030153381778063</v>
-      </c>
-      <c r="J18">
-        <v>0.2324024569332694</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.006601</v>
-      </c>
-      <c r="N18">
-        <v>0.019803</v>
-      </c>
-      <c r="O18">
-        <v>0.0009255397585646605</v>
-      </c>
-      <c r="P18">
-        <v>0.001383055057785483</v>
-      </c>
-      <c r="Q18">
-        <v>0.041527372873</v>
-      </c>
-      <c r="R18">
-        <v>0.373746355857</v>
-      </c>
-      <c r="S18">
-        <v>0.0001878987670820098</v>
-      </c>
-      <c r="T18">
-        <v>0.0003214253935033312</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>6.291073</v>
-      </c>
-      <c r="H19">
-        <v>18.873219</v>
-      </c>
-      <c r="I19">
-        <v>0.2030153381778063</v>
-      </c>
-      <c r="J19">
-        <v>0.2324024569332694</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M19">
-        <v>0.01638633333333333</v>
-      </c>
-      <c r="N19">
-        <v>0.049159</v>
-      </c>
-      <c r="O19">
-        <v>0.00229756142964602</v>
-      </c>
-      <c r="P19">
-        <v>0.003433298166221107</v>
-      </c>
-      <c r="Q19">
-        <v>0.1030876192023333</v>
-      </c>
-      <c r="R19">
-        <v>0.927788572821</v>
-      </c>
-      <c r="S19">
-        <v>0.0004664402106238709</v>
-      </c>
-      <c r="T19">
-        <v>0.0007979069292142734</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>6.291073</v>
-      </c>
-      <c r="H20">
-        <v>18.873219</v>
-      </c>
-      <c r="I20">
-        <v>0.2030153381778063</v>
-      </c>
-      <c r="J20">
-        <v>0.2324024569332694</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.03120566666666666</v>
-      </c>
-      <c r="N20">
-        <v>0.09361699999999999</v>
-      </c>
-      <c r="O20">
-        <v>0.004375410573021653</v>
-      </c>
-      <c r="P20">
-        <v>0.006538275278730676</v>
-      </c>
-      <c r="Q20">
-        <v>0.1963171270136666</v>
-      </c>
-      <c r="R20">
-        <v>1.766854143123</v>
-      </c>
-      <c r="S20">
-        <v>0.0008882754571487403</v>
-      </c>
-      <c r="T20">
-        <v>0.001519511238883066</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>6.291073</v>
-      </c>
-      <c r="H21">
-        <v>18.873219</v>
-      </c>
-      <c r="I21">
-        <v>0.2030153381778063</v>
-      </c>
-      <c r="J21">
-        <v>0.2324024569332694</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>7.0778615</v>
-      </c>
-      <c r="N21">
-        <v>14.155723</v>
-      </c>
-      <c r="O21">
-        <v>0.9924014882387677</v>
-      </c>
-      <c r="P21">
-        <v>0.9886453714972628</v>
-      </c>
-      <c r="Q21">
-        <v>44.5273433803895</v>
-      </c>
-      <c r="R21">
-        <v>267.164060282337</v>
-      </c>
-      <c r="S21">
-        <v>0.2014727237429517</v>
-      </c>
-      <c r="T21">
-        <v>0.2297636133716687</v>
+        <v>0.2480409087084142</v>
       </c>
     </row>
   </sheetData>
